--- a/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004486202483288487</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2985</v>
+        <v>3401</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002365705377143581</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01186765676723133</v>
+        <v>0.01352007528046513</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5343</v>
+        <v>5644</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003359200671961199</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01128982359632121</v>
+        <v>0.01192541282556012</v>
       </c>
     </row>
     <row r="8">
@@ -981,16 +981,16 @@
         <v>220737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216378</v>
+        <v>216657</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>221732</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9955137975167114</v>
+        <v>0.9955137975167115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9758525965410418</v>
+        <v>0.9771128813080557</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1002,16 +1002,16 @@
         <v>250933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248543</v>
+        <v>248127</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>251528</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9976342946228565</v>
+        <v>0.9976342946228564</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9881323432327684</v>
+        <v>0.9864799247195347</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1023,16 +1023,16 @@
         <v>471670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>467917</v>
+        <v>467616</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>473260</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.996640799328039</v>
+        <v>0.9966407993280387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9887101764036788</v>
+        <v>0.9880745871744396</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007087387113855551</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1148,19 +1148,19 @@
         <v>1858</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5197</v>
+        <v>5129</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01269688468411139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003877795067172069</v>
+        <v>0.003852348215112524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03551497060175338</v>
+        <v>0.03504898797819108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1169,19 +1169,19 @@
         <v>2518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5779</v>
+        <v>5799</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0105164653382035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00256524584763541</v>
+        <v>0.002720916316516486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02414150022339267</v>
+        <v>0.02422512029207535</v>
       </c>
     </row>
     <row r="11">
@@ -1198,16 +1198,16 @@
         <v>92394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89678</v>
+        <v>88437</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>93054</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9929126128861444</v>
+        <v>0.9929126128861445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637151817488057</v>
+        <v>0.9503855199525946</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1219,19 +1219,19 @@
         <v>144484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141145</v>
+        <v>141213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145775</v>
+        <v>145778</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9873031153158885</v>
+        <v>0.9873031153158884</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9644850293982463</v>
+        <v>0.9649510120218088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961222049328278</v>
+        <v>0.9961476517848873</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>332</v>
@@ -1240,19 +1240,19 @@
         <v>236878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233617</v>
+        <v>233597</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238782</v>
+        <v>238745</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9894835346617964</v>
+        <v>0.9894835346617965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9758584997766071</v>
+        <v>0.9757748797079245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9974347541523646</v>
+        <v>0.9972790836834835</v>
       </c>
     </row>
     <row r="12">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004602903985099819</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="14">
@@ -1407,16 +1407,16 @@
         <v>172729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167693</v>
+        <v>167840</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>174460</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9900805618955507</v>
+        <v>0.9900805618955505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9612132107766967</v>
+        <v>0.962054925923139</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>374237</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>368745</v>
+        <v>369280</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>375968</v>
@@ -1450,7 +1450,7 @@
         <v>0.9953970960149001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9807884174749379</v>
+        <v>0.9822124409663914</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2112</v>
+        <v>2297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004863038600985316</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02660387080482974</v>
+        <v>0.02893305888640805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1969</v>
+        <v>1944</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002356775503368168</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01201831239640715</v>
+        <v>0.01186513890864388</v>
       </c>
     </row>
     <row r="17">
@@ -1621,7 +1621,7 @@
         <v>78999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77273</v>
+        <v>77088</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>79385</v>
@@ -1630,7 +1630,7 @@
         <v>0.9951369613990146</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9733961291951713</v>
+        <v>0.9710669411135922</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1642,16 +1642,16 @@
         <v>163420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161837</v>
+        <v>161862</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>163806</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9976432244966318</v>
+        <v>0.997643224496632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.987981687603593</v>
+        <v>0.9881348610913562</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4293</v>
+        <v>4548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003915705492271867</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01205253504906187</v>
+        <v>0.01277025872025144</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4971</v>
+        <v>4866</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001970377196846007</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007022260041682373</v>
+        <v>0.00687513810131122</v>
       </c>
     </row>
     <row r="23">
@@ -1991,7 +1991,7 @@
         <v>354784</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>351886</v>
+        <v>351631</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>356179</v>
@@ -2000,7 +2000,7 @@
         <v>0.9960842945077281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9879474649509383</v>
+        <v>0.9872297412797494</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -2012,16 +2012,16 @@
         <v>706436</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>702860</v>
+        <v>702965</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>707831</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9980296228031541</v>
+        <v>0.998029622803154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9929777399583175</v>
+        <v>0.9931248618986889</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2129,19 +2129,19 @@
         <v>2445</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7619</v>
+        <v>6731</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006008043946647237</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001601223665369507</v>
+        <v>0.001573687779733847</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01871967138834947</v>
+        <v>0.01653829880067624</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2150,19 +2150,19 @@
         <v>2445</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6315</v>
+        <v>7257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003185351887621546</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008309268710684997</v>
+        <v>0.0008432103674568586</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008226152476129876</v>
+        <v>0.009453797276838578</v>
       </c>
     </row>
     <row r="26">
@@ -2192,19 +2192,19 @@
         <v>404561</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>399387</v>
+        <v>400275</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>406354</v>
+        <v>406365</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9939919560533529</v>
+        <v>0.9939919560533527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9812803286116499</v>
+        <v>0.9834617011993239</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9983987763346304</v>
+        <v>0.9984263122202661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>845</v>
@@ -2213,19 +2213,19 @@
         <v>765228</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>761358</v>
+        <v>760416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>767035</v>
+        <v>767026</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9968146481123785</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9917738475238701</v>
+        <v>0.9905462027231611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9991690731289314</v>
+        <v>0.9991567896325431</v>
       </c>
     </row>
     <row r="27">
@@ -2317,19 +2317,19 @@
         <v>3385</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2338,19 +2338,19 @@
         <v>6679</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>14</v>
@@ -2359,19 +2359,19 @@
         <v>10064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="29">
@@ -2388,19 +2388,19 @@
         <v>1563733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1558388</v>
+        <v>1558778</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1566105</v>
+        <v>1566302</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9978401195665715</v>
+        <v>0.9978401195665714</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9944294143777166</v>
+        <v>0.9946778567057836</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9993533310008407</v>
+        <v>0.9994794784646037</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2362</v>
@@ -2409,19 +2409,19 @@
         <v>1687695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1682693</v>
+        <v>1681989</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1691090</v>
+        <v>1691033</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9960580194642505</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9931062128347524</v>
+        <v>0.9926903471763651</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9980620720070468</v>
+        <v>0.9980281325270685</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3817</v>
@@ -2430,19 +2430,19 @@
         <v>3251428</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3244162</v>
+        <v>3244196</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3255849</v>
+        <v>3255387</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9969143027030722</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9946864944060305</v>
+        <v>0.9946967556363309</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9982698483772365</v>
+        <v>0.9981280973344896</v>
       </c>
     </row>
     <row r="30">
